--- a/data/1.xlsx
+++ b/data/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\itss-web-exercise\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631DFD41-0001-424D-8530-C43F1875C78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9155031-4F0F-4FCA-B824-E3A2783DE5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="7944" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>date</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>events</t>
-  </si>
-  <si>
-    <t>Làm việc den chet</t>
   </si>
   <si>
     <t>Giải lao trưa</t>
@@ -375,7 +372,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -402,7 +399,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45642</v>
+        <v>45657</v>
       </c>
       <c r="B2" s="2">
         <v>0.375</v>
@@ -411,12 +408,12 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45642</v>
+        <v>45657</v>
       </c>
       <c r="B3" s="2">
         <v>0.5</v>
@@ -425,12 +422,12 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45642</v>
+        <v>45657</v>
       </c>
       <c r="B4" s="2">
         <v>0.79166666666666663</v>
@@ -439,12 +436,12 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45643</v>
+        <v>45662</v>
       </c>
       <c r="B5" s="2">
         <v>0.375</v>
@@ -453,12 +450,12 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45644</v>
+        <v>45663</v>
       </c>
       <c r="B6" s="2">
         <v>0.375</v>
@@ -467,12 +464,12 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45645</v>
+        <v>45664</v>
       </c>
       <c r="B7" s="2">
         <v>0.375</v>
@@ -481,7 +478,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
